--- a/Unity/Assets/Config/Excel/DungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18705" windowHeight="8910"/>
+    <workbookView windowWidth="24645" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonConfigProto" sheetId="1" r:id="rId1"/>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
